--- a/SU - Suspension/09 - LAS automatique/Results/Bump.xlsx
+++ b/SU - Suspension/09 - LAS automatique/Results/Bump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\Cours ECL\EPSA\Vulcanix-v1.0\SU - Suspension\09 - LAS automatique\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6A4A68CC-D68D-4433-8A35-376781B319F7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0DCA0DA8-E399-4D0B-8C3D-FB1859961BC3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{2F35E389-9CDF-40D2-AC78-95AD9CBC1FCE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{455F9605-FBF2-4321-9A42-96F8703907DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Bump (mm)</t>
   </si>
   <si>
-    <t>Steering angle (deg)</t>
+    <t>Steering angle Right (deg)</t>
+  </si>
+  <si>
+    <t>Steering angle Left (deg)</t>
   </si>
   <si>
     <t>Rear Toe (deg)</t>
@@ -70,8 +73,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,9 +110,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,604 +431,2792 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E36A05-036D-4FBB-8A5B-CDA9B7B48B13}">
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DE696B-A66D-4589-B9CC-126FBFAE0B18}">
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="H30" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-26</v>
+      </c>
+      <c r="B2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>290.60300000000001</v>
+      </c>
+      <c r="F2">
+        <v>290.43900000000002</v>
+      </c>
+      <c r="G2">
+        <v>144.899</v>
+      </c>
+      <c r="H2">
+        <v>145.52699999999999</v>
+      </c>
+      <c r="I2">
+        <v>3.1360000000000001</v>
+      </c>
+      <c r="J2">
+        <v>3.73</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>3.39</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>-25</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>289.61500000000001</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F3">
         <v>289.46600000000001</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G3">
         <v>145.87899999999999</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H3">
         <v>146.48400000000001</v>
       </c>
-      <c r="H2" s="1">
-        <v>1.1319999999999999</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="I3">
+        <v>3.0880000000000001</v>
+      </c>
+      <c r="J3">
         <v>3.6379999999999999</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>29.619</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>49.366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>4.6289999999999996</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>24.376000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-24</v>
+      </c>
+      <c r="B4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>288.62700000000001</v>
+      </c>
+      <c r="F4">
+        <v>288.49299999999999</v>
+      </c>
+      <c r="G4">
+        <v>146.857</v>
+      </c>
+      <c r="H4">
+        <v>147.441</v>
+      </c>
+      <c r="I4">
+        <v>3.04</v>
+      </c>
+      <c r="J4">
+        <v>3.5459999999999998</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>5.8710000000000004</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>25.367999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-23</v>
+      </c>
+      <c r="B5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>287.63900000000001</v>
+      </c>
+      <c r="F5">
+        <v>287.51799999999997</v>
+      </c>
+      <c r="G5">
+        <v>147.834</v>
+      </c>
+      <c r="H5">
+        <v>148.398</v>
+      </c>
+      <c r="I5">
+        <v>2.9929999999999999</v>
+      </c>
+      <c r="J5">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>7.1139999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>26.364000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-22</v>
+      </c>
+      <c r="B6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>286.64999999999998</v>
+      </c>
+      <c r="F6">
+        <v>286.54300000000001</v>
+      </c>
+      <c r="G6">
+        <v>148.81</v>
+      </c>
+      <c r="H6">
+        <v>149.35400000000001</v>
+      </c>
+      <c r="I6">
+        <v>2.9449999999999998</v>
+      </c>
+      <c r="J6">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>8.359</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>27.366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-21</v>
+      </c>
+      <c r="B7">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>285.661</v>
+      </c>
+      <c r="F7">
+        <v>285.56700000000001</v>
+      </c>
+      <c r="G7">
+        <v>149.78399999999999</v>
+      </c>
+      <c r="H7">
+        <v>150.309</v>
+      </c>
+      <c r="I7">
+        <v>2.8980000000000001</v>
+      </c>
+      <c r="J7">
+        <v>3.274</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>9.6059999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>28.373000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>-20</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B8">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C8">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>284.67200000000003</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F8">
         <v>284.59100000000001</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G8">
         <v>150.756</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H8">
         <v>151.26400000000001</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="I8">
+        <v>2.851</v>
+      </c>
+      <c r="J8">
         <v>3.1850000000000001</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>30.844999999999999</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>49.375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>10.855</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>29.385000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-19</v>
+      </c>
+      <c r="B9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>283.68299999999999</v>
+      </c>
+      <c r="F9">
+        <v>283.613</v>
+      </c>
+      <c r="G9">
+        <v>151.727</v>
+      </c>
+      <c r="H9">
+        <v>152.21799999999999</v>
+      </c>
+      <c r="I9">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="J9">
+        <v>3.0960000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>12.105</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>30.402000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-18</v>
+      </c>
+      <c r="B10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>282.69299999999998</v>
+      </c>
+      <c r="F10">
+        <v>282.63499999999999</v>
+      </c>
+      <c r="G10">
+        <v>152.697</v>
+      </c>
+      <c r="H10">
+        <v>153.17099999999999</v>
+      </c>
+      <c r="I10">
+        <v>2.758</v>
+      </c>
+      <c r="J10">
+        <v>3.0070000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>13.356999999999999</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>31.425000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-17</v>
+      </c>
+      <c r="B11">
+        <v>0.02</v>
+      </c>
+      <c r="C11">
+        <v>0.02</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>281.70299999999997</v>
+      </c>
+      <c r="F11">
+        <v>281.65600000000001</v>
+      </c>
+      <c r="G11">
+        <v>153.66399999999999</v>
+      </c>
+      <c r="H11">
+        <v>154.12200000000001</v>
+      </c>
+      <c r="I11">
+        <v>2.7120000000000002</v>
+      </c>
+      <c r="J11">
+        <v>2.919</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>14.611000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>32.451999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-16</v>
+      </c>
+      <c r="B12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>280.71300000000002</v>
+      </c>
+      <c r="F12">
+        <v>280.67599999999999</v>
+      </c>
+      <c r="G12">
+        <v>154.631</v>
+      </c>
+      <c r="H12">
+        <v>155.07300000000001</v>
+      </c>
+      <c r="I12">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="J12">
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>15.866</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>33.484000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>-15</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B13">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>279.72300000000001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F13">
         <v>279.69600000000003</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G13">
         <v>155.595</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H13">
         <v>156.02199999999999</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="I13">
+        <v>2.62</v>
+      </c>
+      <c r="J13">
         <v>2.7440000000000002</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>32.113</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>49.511000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>17.123000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>34.521000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-14</v>
+      </c>
+      <c r="B14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>278.733</v>
+      </c>
+      <c r="F14">
+        <v>278.71499999999997</v>
+      </c>
+      <c r="G14">
+        <v>156.55799999999999</v>
+      </c>
+      <c r="H14">
+        <v>156.97</v>
+      </c>
+      <c r="I14">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="J14">
+        <v>2.6579999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>18.382000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>35.563000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-13</v>
+      </c>
+      <c r="B15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>277.74200000000002</v>
+      </c>
+      <c r="F15">
+        <v>277.733</v>
+      </c>
+      <c r="G15">
+        <v>157.51900000000001</v>
+      </c>
+      <c r="H15">
+        <v>157.916</v>
+      </c>
+      <c r="I15">
+        <v>2.5289999999999999</v>
+      </c>
+      <c r="J15">
+        <v>2.5720000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>19.643000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>36.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-12</v>
+      </c>
+      <c r="B16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>276.75099999999998</v>
+      </c>
+      <c r="F16">
+        <v>276.75099999999998</v>
+      </c>
+      <c r="G16">
+        <v>158.47900000000001</v>
+      </c>
+      <c r="H16">
+        <v>158.86099999999999</v>
+      </c>
+      <c r="I16">
+        <v>2.484</v>
+      </c>
+      <c r="J16">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>20.905000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>37.661000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-11</v>
+      </c>
+      <c r="B17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>275.76</v>
+      </c>
+      <c r="F17">
+        <v>275.767</v>
+      </c>
+      <c r="G17">
+        <v>159.43600000000001</v>
+      </c>
+      <c r="H17">
+        <v>159.803</v>
+      </c>
+      <c r="I17">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="J17">
+        <v>2.4009999999999998</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>22.169</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>38.718000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>-10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B18">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>274.76900000000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F18">
         <v>274.78399999999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G18">
         <v>160.392</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H18">
         <v>160.745</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.438</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="I18">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="J18">
         <v>2.3159999999999998</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>33.423999999999999</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>49.768999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>23.434000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>39.779000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-9</v>
+      </c>
+      <c r="B19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>273.77699999999999</v>
+      </c>
+      <c r="F19">
+        <v>273.79899999999998</v>
+      </c>
+      <c r="G19">
+        <v>161.34700000000001</v>
+      </c>
+      <c r="H19">
+        <v>161.684</v>
+      </c>
+      <c r="I19">
+        <v>2.3490000000000002</v>
+      </c>
+      <c r="J19">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>24.702000000000002</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>40.844999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-8</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>272.786</v>
+      </c>
+      <c r="F20">
+        <v>272.81400000000002</v>
+      </c>
+      <c r="G20">
+        <v>162.29900000000001</v>
+      </c>
+      <c r="H20">
+        <v>162.62100000000001</v>
+      </c>
+      <c r="I20">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="J20">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>25.97</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>41.914999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-7</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>271.79399999999998</v>
+      </c>
+      <c r="F21">
+        <v>271.82799999999997</v>
+      </c>
+      <c r="G21">
+        <v>163.25</v>
+      </c>
+      <c r="H21">
+        <v>163.55600000000001</v>
+      </c>
+      <c r="I21">
+        <v>2.2610000000000001</v>
+      </c>
+      <c r="J21">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>27.241</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>42.991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-6</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>270.80200000000002</v>
+      </c>
+      <c r="F22">
+        <v>270.84100000000001</v>
+      </c>
+      <c r="G22">
+        <v>164.19900000000001</v>
+      </c>
+      <c r="H22">
+        <v>164.49</v>
+      </c>
+      <c r="I22">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="J22">
+        <v>1.982</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>28.513000000000002</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>44.07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>-5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>269.80900000000003</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F23">
         <v>269.85399999999998</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G23">
         <v>165.14599999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H23">
         <v>165.42099999999999</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.218</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="I23">
+        <v>2.173</v>
+      </c>
+      <c r="J23">
         <v>1.9</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>34.777000000000001</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>50.145000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>29.786999999999999</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>45.155000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-4</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>268.81700000000001</v>
+      </c>
+      <c r="F24">
+        <v>268.86700000000002</v>
+      </c>
+      <c r="G24">
+        <v>166.09200000000001</v>
+      </c>
+      <c r="H24">
+        <v>166.34899999999999</v>
+      </c>
+      <c r="I24">
+        <v>2.13</v>
+      </c>
+      <c r="J24">
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>31.062000000000001</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>46.244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-3</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>267.82400000000001</v>
+      </c>
+      <c r="F25">
+        <v>267.87799999999999</v>
+      </c>
+      <c r="G25">
+        <v>167.035</v>
+      </c>
+      <c r="H25">
+        <v>167.27600000000001</v>
+      </c>
+      <c r="I25">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="J25">
+        <v>1.736</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>32.338999999999999</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>47.338000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-2</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>266.83199999999999</v>
+      </c>
+      <c r="F26">
+        <v>266.88900000000001</v>
+      </c>
+      <c r="G26">
+        <v>167.977</v>
+      </c>
+      <c r="H26">
+        <v>168.2</v>
+      </c>
+      <c r="I26">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="J26">
+        <v>1.655</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>33.618000000000002</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>48.436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>265.839</v>
+      </c>
+      <c r="F27">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="G27">
+        <v>168.917</v>
+      </c>
+      <c r="H27">
+        <v>169.12200000000001</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>34.898000000000003</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>49.539000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>264.84500000000003</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F28">
         <v>264.91000000000003</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G28">
         <v>169.85499999999999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H28">
         <v>170.042</v>
       </c>
-      <c r="H7" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="I28">
+        <v>1.958</v>
+      </c>
+      <c r="J28">
         <v>1.494</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>36.17</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>50.636000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>36.18</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>50.646000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>263.85199999999998</v>
+      </c>
+      <c r="F29">
+        <v>263.91899999999998</v>
+      </c>
+      <c r="G29">
+        <v>170.792</v>
+      </c>
+      <c r="H29">
+        <v>170.959</v>
+      </c>
+      <c r="I29">
+        <v>1.915</v>
+      </c>
+      <c r="J29">
+        <v>1.415</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>37.463999999999999</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>51.756999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>262.858</v>
+      </c>
+      <c r="F30">
+        <v>262.928</v>
+      </c>
+      <c r="G30">
+        <v>171.726</v>
+      </c>
+      <c r="H30">
+        <v>171.87299999999999</v>
+      </c>
+      <c r="I30">
+        <v>1.873</v>
+      </c>
+      <c r="J30">
+        <v>1.335</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>38.749000000000002</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>52.872999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>261.86500000000001</v>
+      </c>
+      <c r="F31">
+        <v>261.93599999999998</v>
+      </c>
+      <c r="G31">
+        <v>172.65899999999999</v>
+      </c>
+      <c r="H31">
+        <v>172.785</v>
+      </c>
+      <c r="I31">
+        <v>1.831</v>
+      </c>
+      <c r="J31">
+        <v>1.256</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>40.034999999999997</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>53.994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>260.87099999999998</v>
+      </c>
+      <c r="F32">
+        <v>260.94400000000002</v>
+      </c>
+      <c r="G32">
+        <v>173.59</v>
+      </c>
+      <c r="H32">
+        <v>173.69399999999999</v>
+      </c>
+      <c r="I32">
+        <v>1.7889999999999999</v>
+      </c>
+      <c r="J32">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>41.323999999999998</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>55.118000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>259.87700000000001</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F33">
         <v>259.95100000000002</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G33">
         <v>174.51900000000001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H33">
         <v>174.601</v>
       </c>
-      <c r="H8" s="1">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="I33">
+        <v>1.7470000000000001</v>
+      </c>
+      <c r="J33">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>37.603000000000002</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>51.237000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>42.613</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>56.247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>258.88299999999998</v>
+      </c>
+      <c r="F34">
+        <v>258.95800000000003</v>
+      </c>
+      <c r="G34">
+        <v>175.446</v>
+      </c>
+      <c r="H34">
+        <v>175.505</v>
+      </c>
+      <c r="I34">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="J34">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>43.905000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>57.381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>257.88799999999998</v>
+      </c>
+      <c r="F35">
+        <v>257.964</v>
+      </c>
+      <c r="G35">
+        <v>176.37100000000001</v>
+      </c>
+      <c r="H35">
+        <v>176.40700000000001</v>
+      </c>
+      <c r="I35">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="J35">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>45.198</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>58.518000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C36">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>256.89400000000001</v>
+      </c>
+      <c r="F36">
+        <v>256.97000000000003</v>
+      </c>
+      <c r="G36">
+        <v>177.29400000000001</v>
+      </c>
+      <c r="H36">
+        <v>177.30600000000001</v>
+      </c>
+      <c r="I36">
+        <v>1.623</v>
+      </c>
+      <c r="J36">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>46.491999999999997</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>59.66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>255.899</v>
+      </c>
+      <c r="F37">
+        <v>255.97499999999999</v>
+      </c>
+      <c r="G37">
+        <v>178.21600000000001</v>
+      </c>
+      <c r="H37">
+        <v>178.202</v>
+      </c>
+      <c r="I37">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="J37">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>47.787999999999997</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>60.805999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B38">
         <v>0.01</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C38">
+        <v>0.01</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>254.904</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F38">
         <v>254.97900000000001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G38">
         <v>179.13499999999999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H38">
         <v>179.095</v>
       </c>
-      <c r="H9" s="1">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="I38">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="J38">
         <v>0.71699999999999997</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>39.076000000000001</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>51.945999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>49.085999999999999</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>61.956000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C39">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>253.90899999999999</v>
+      </c>
+      <c r="F39">
+        <v>253.983</v>
+      </c>
+      <c r="G39">
+        <v>180.053</v>
+      </c>
+      <c r="H39">
+        <v>179.98599999999999</v>
+      </c>
+      <c r="I39">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="J39">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>50.384999999999998</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>63.11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C40">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>252.91399999999999</v>
+      </c>
+      <c r="F40">
+        <v>252.98699999999999</v>
+      </c>
+      <c r="G40">
+        <v>180.96899999999999</v>
+      </c>
+      <c r="H40">
+        <v>180.87299999999999</v>
+      </c>
+      <c r="I40">
+        <v>1.46</v>
+      </c>
+      <c r="J40">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>51.686</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>64.269000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C41">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>251.91900000000001</v>
+      </c>
+      <c r="F41">
+        <v>251.99</v>
+      </c>
+      <c r="G41">
+        <v>181.88300000000001</v>
+      </c>
+      <c r="H41">
+        <v>181.75800000000001</v>
+      </c>
+      <c r="I41">
+        <v>1.42</v>
+      </c>
+      <c r="J41">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>52.988</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>65.430999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C42">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>250.923</v>
+      </c>
+      <c r="F42">
+        <v>250.99299999999999</v>
+      </c>
+      <c r="G42">
+        <v>182.79499999999999</v>
+      </c>
+      <c r="H42">
+        <v>182.64</v>
+      </c>
+      <c r="I42">
+        <v>1.38</v>
+      </c>
+      <c r="J42">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>54.292000000000002</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>66.597999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>15</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B43">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C43">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
         <v>249.92699999999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F43">
         <v>249.995</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G43">
         <v>183.70500000000001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H43">
         <v>183.52</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="I43">
+        <v>1.34</v>
+      </c>
+      <c r="J43">
         <v>0.34399999999999997</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>40.587000000000003</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>52.758000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>55.597000000000001</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>67.768000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C44">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>248.93199999999999</v>
+      </c>
+      <c r="F44">
+        <v>248.99700000000001</v>
+      </c>
+      <c r="G44">
+        <v>184.613</v>
+      </c>
+      <c r="H44">
+        <v>184.39599999999999</v>
+      </c>
+      <c r="I44">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="J44">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>56.904000000000003</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>68.942999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C45">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>247.93600000000001</v>
+      </c>
+      <c r="F45">
+        <v>247.99799999999999</v>
+      </c>
+      <c r="G45">
+        <v>185.51900000000001</v>
+      </c>
+      <c r="H45">
+        <v>185.27</v>
+      </c>
+      <c r="I45">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="J45">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>58.212000000000003</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>70.120999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>0.03</v>
+      </c>
+      <c r="C46">
+        <v>0.03</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>246.94</v>
+      </c>
+      <c r="F46">
+        <v>246.999</v>
+      </c>
+      <c r="G46">
+        <v>186.423</v>
+      </c>
+      <c r="H46">
+        <v>186.14099999999999</v>
+      </c>
+      <c r="I46">
+        <v>1.222</v>
+      </c>
+      <c r="J46">
+        <v>0.125</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>59.521999999999998</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>71.304000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C47">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>245.94399999999999</v>
+      </c>
+      <c r="F47">
+        <v>246</v>
+      </c>
+      <c r="G47">
+        <v>187.32499999999999</v>
+      </c>
+      <c r="H47">
+        <v>187.00800000000001</v>
+      </c>
+      <c r="I47">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="J47">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>60.832999999999998</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>72.489999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>20</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B48">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C48">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <v>244.947</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F48">
         <v>245</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G48">
         <v>188.22499999999999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H48">
         <v>187.87299999999999</v>
       </c>
-      <c r="H11" s="1">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>42.136000000000003</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>53.670999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="I48">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="J48">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>62.146000000000001</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>73.680999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C49">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>243.95099999999999</v>
+      </c>
+      <c r="F49">
+        <v>244</v>
+      </c>
+      <c r="G49">
+        <v>189.124</v>
+      </c>
+      <c r="H49">
+        <v>188.73599999999999</v>
+      </c>
+      <c r="I49">
+        <v>1.105</v>
+      </c>
+      <c r="J49">
+        <v>-0.09</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>63.460999999999999</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>74.875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C50">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>242.95400000000001</v>
+      </c>
+      <c r="F50">
+        <v>242.999</v>
+      </c>
+      <c r="G50">
+        <v>190.02</v>
+      </c>
+      <c r="H50">
+        <v>189.595</v>
+      </c>
+      <c r="I50">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="J50">
+        <v>-0.161</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>64.775999999999996</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>76.072999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>23</v>
+      </c>
+      <c r="B51">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C51">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>241.95699999999999</v>
+      </c>
+      <c r="F51">
+        <v>241.99799999999999</v>
+      </c>
+      <c r="G51">
+        <v>190.91399999999999</v>
+      </c>
+      <c r="H51">
+        <v>190.45099999999999</v>
+      </c>
+      <c r="I51">
+        <v>1.028</v>
+      </c>
+      <c r="J51">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>66.093999999999994</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>77.275000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>24</v>
+      </c>
+      <c r="B52">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C52">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>240.96</v>
+      </c>
+      <c r="F52">
+        <v>240.99600000000001</v>
+      </c>
+      <c r="G52">
+        <v>191.80600000000001</v>
+      </c>
+      <c r="H52">
+        <v>191.30500000000001</v>
+      </c>
+      <c r="I52">
+        <v>0.99</v>
+      </c>
+      <c r="J52">
+        <v>-0.30099999999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>67.412999999999997</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>78.480999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>25</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B53">
         <v>5.5E-2</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C53">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>239.96299999999999</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F53">
         <v>239.994</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G53">
         <v>192.697</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H53">
         <v>192.155</v>
       </c>
-      <c r="H12" s="1">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.371</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>43.722999999999999</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>54.680999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="I53">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="J53">
+        <v>-0.371</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>68.733000000000004</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>79.691000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C54">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>238.96600000000001</v>
+      </c>
+      <c r="F54">
+        <v>238.99199999999999</v>
+      </c>
+      <c r="G54">
+        <v>193.58500000000001</v>
+      </c>
+      <c r="H54">
+        <v>193.00299999999999</v>
+      </c>
+      <c r="I54">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="J54">
+        <v>-0.44</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>70.055000000000007</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>80.903999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C55">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>237.96899999999999</v>
+      </c>
+      <c r="F55">
+        <v>237.99</v>
+      </c>
+      <c r="G55">
+        <v>194.471</v>
+      </c>
+      <c r="H55">
+        <v>193.84800000000001</v>
+      </c>
+      <c r="I55">
+        <v>0.877</v>
+      </c>
+      <c r="J55">
+        <v>-0.50900000000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>71.378</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>82.120999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C56">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>236.97200000000001</v>
+      </c>
+      <c r="F56">
+        <v>236.98699999999999</v>
+      </c>
+      <c r="G56">
+        <v>195.35599999999999</v>
+      </c>
+      <c r="H56">
+        <v>194.69</v>
+      </c>
+      <c r="I56">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="J56">
+        <v>-0.57799999999999996</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>72.703000000000003</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>83.341999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>29</v>
+      </c>
+      <c r="B57">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C57">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>235.97399999999999</v>
+      </c>
+      <c r="F57">
+        <v>235.983</v>
+      </c>
+      <c r="G57">
+        <v>196.238</v>
+      </c>
+      <c r="H57">
+        <v>195.529</v>
+      </c>
+      <c r="I57">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="J57">
+        <v>-0.64600000000000002</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>74.03</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>84.566999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>30</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B58">
         <v>7.8E-2</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C58">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
         <v>234.976</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F58">
         <v>234.97900000000001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G58">
         <v>197.11799999999999</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H58">
         <v>196.36500000000001</v>
       </c>
-      <c r="H13" s="1">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>45.347000000000001</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>55.784999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="I58">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="J58">
+        <v>-0.71299999999999997</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>75.356999999999999</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>85.795000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>31</v>
+      </c>
+      <c r="B59">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C59">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>233.97900000000001</v>
+      </c>
+      <c r="F59">
+        <v>233.97499999999999</v>
+      </c>
+      <c r="G59">
+        <v>197.99600000000001</v>
+      </c>
+      <c r="H59">
+        <v>197.19800000000001</v>
+      </c>
+      <c r="I59">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="J59">
+        <v>-0.78100000000000003</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>76.686999999999998</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>87.027000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>32</v>
+      </c>
+      <c r="B60">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C60">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>232.98099999999999</v>
+      </c>
+      <c r="F60">
+        <v>232.971</v>
+      </c>
+      <c r="G60">
+        <v>198.87200000000001</v>
+      </c>
+      <c r="H60">
+        <v>198.029</v>
+      </c>
+      <c r="I60">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="J60">
+        <v>-0.84799999999999998</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>78.018000000000001</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>88.262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>33</v>
+      </c>
+      <c r="B61">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C61">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>231.983</v>
+      </c>
+      <c r="F61">
+        <v>231.96600000000001</v>
+      </c>
+      <c r="G61">
+        <v>199.74600000000001</v>
+      </c>
+      <c r="H61">
+        <v>198.85599999999999</v>
+      </c>
+      <c r="I61">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="J61">
+        <v>-0.91400000000000003</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>89.501000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>34</v>
+      </c>
+      <c r="B62">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C62">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>230.98500000000001</v>
+      </c>
+      <c r="F62">
+        <v>230.96100000000001</v>
+      </c>
+      <c r="G62">
+        <v>200.61799999999999</v>
+      </c>
+      <c r="H62">
+        <v>199.68100000000001</v>
+      </c>
+      <c r="I62">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="J62">
+        <v>-0.98099999999999998</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>80.683999999999997</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>90.744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>35</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B63">
         <v>0.105</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C63">
+        <v>0.105</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
         <v>229.98599999999999</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F63">
         <v>229.95599999999999</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G63">
         <v>201.488</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H63">
         <v>200.50299999999999</v>
       </c>
-      <c r="H14" s="1">
-        <v>1.373</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1.046</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>47.009</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>56.98</v>
+      <c r="I63">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="J63">
+        <v>-1.046</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>82.019000000000005</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>91.99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>